--- a/output/damage/TWN_osm_fl_historical_damage_2.xlsx
+++ b/output/damage/TWN_osm_fl_historical_damage_2.xlsx
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>126801.7106964584</v>
+        <v>115532.8092832113</v>
       </c>
       <c r="F3" t="n">
-        <v>22304.20931149041</v>
+        <v>86649.60696240845</v>
       </c>
       <c r="G3" t="n">
-        <v>431038.079926266</v>
+        <v>144416.0116040141</v>
       </c>
     </row>
     <row r="4">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>130370.5085906189</v>
+        <v>118784.4471689444</v>
       </c>
       <c r="F5" t="n">
-        <v>22931.95490565128</v>
+        <v>89088.3353767083</v>
       </c>
       <c r="G5" t="n">
-        <v>443169.5234493448</v>
+        <v>148480.5589611805</v>
       </c>
     </row>
     <row r="6">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>172086.7450354075</v>
+        <v>156793.3506980647</v>
       </c>
       <c r="F7" t="n">
-        <v>30269.77128243125</v>
+        <v>117595.0130235485</v>
       </c>
       <c r="G7" t="n">
-        <v>584975.8631284357</v>
+        <v>195991.6883725809</v>
       </c>
     </row>
     <row r="8">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185140.1558257396</v>
+        <v>168686.7014348303</v>
       </c>
       <c r="F9" t="n">
-        <v>32565.84445760623</v>
+        <v>126515.0260761227</v>
       </c>
       <c r="G9" t="n">
-        <v>629348.427919951</v>
+        <v>210858.3767935378</v>
       </c>
     </row>
     <row r="10">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>198581.2769648544</v>
+        <v>180933.3065996079</v>
       </c>
       <c r="F11" t="n">
-        <v>34930.11523614145</v>
+        <v>135699.9799497059</v>
       </c>
       <c r="G11" t="n">
-        <v>675038.939633388</v>
+        <v>226166.6332495098</v>
       </c>
     </row>
     <row r="12">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>210060.5639512562</v>
+        <v>191392.426329325</v>
       </c>
       <c r="F13" t="n">
-        <v>36949.30266101997</v>
+        <v>143544.3197469937</v>
       </c>
       <c r="G13" t="n">
-        <v>714060.5726568247</v>
+        <v>239240.5329116562</v>
       </c>
     </row>
     <row r="14">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>224166.8326876693</v>
+        <v>204245.0672493127</v>
       </c>
       <c r="F15" t="n">
-        <v>39430.57179195671</v>
+        <v>153183.8004369845</v>
       </c>
       <c r="G15" t="n">
-        <v>762012.1259731892</v>
+        <v>255306.3340616409</v>
       </c>
     </row>
     <row r="16">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>240723.6681190792</v>
+        <v>219330.4923569412</v>
       </c>
       <c r="F17" t="n">
-        <v>42342.89151516673</v>
+        <v>164497.8692677059</v>
       </c>
       <c r="G17" t="n">
-        <v>818293.9104602609</v>
+        <v>274163.1154461765</v>
       </c>
     </row>
     <row r="18">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>253316.025839302</v>
+        <v>230803.7639313215</v>
       </c>
       <c r="F19" t="n">
-        <v>44557.86622469054</v>
+        <v>173102.8229484911</v>
       </c>
       <c r="G19" t="n">
-        <v>861099.2138245247</v>
+        <v>288504.7049141519</v>
       </c>
     </row>
     <row r="20">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>267178.71340254</v>
+        <v>243434.4708011228</v>
       </c>
       <c r="F21" t="n">
-        <v>46996.2898337412</v>
+        <v>182575.8531008421</v>
       </c>
       <c r="G21" t="n">
-        <v>908222.7596903986</v>
+        <v>304293.0885014035</v>
       </c>
     </row>
   </sheetData>
